--- a/medicine/Pharmacie/Daiichi_Sankyo/Daiichi_Sankyo.xlsx
+++ b/medicine/Pharmacie/Daiichi_Sankyo/Daiichi_Sankyo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Daiichi-Sankyo Co., Limited (第一三共株式会社, Daiichi-Sankyō Kabushiki-gaisha?) (TSE : 4568) est un groupe pharmaceutique mondial, basé à Tokyo (Japon), avec une présence dans plus de 50 pays[1]. Daiichi-Sankyo est la 3ème plus grande société pharmaceutique au Japon[2], et figure parmi les 20 laboratoires pharmaceutiques les plus importants au monde.
-Depuis plus de 100 ans[1], Daiichi-Sankyo Co., Ltd. se consacre au développement et à la commercialisation de traitements thérapeutiques de pointe pour répondre aux besoins médicaux non satisfaits et améliorer la santé et le bien-être des individus. En 2006, Daiichi-Sankyo Co., Ltd. développe davantage ses activités et investissements en oncologie[3]. En 2014, Daiichi-Sankyo revend sa filiale indienne Ranbaxy au groupe Sun Pharmaceutical du milliardaire Dilip Shanghvi pour 4 milliards de dollars[4], puis rachète Ambit Biosciences, laboratoire spécialisé en solutions oncologiques, pour 410 millions de dollars[5].
-Les employés de la filiale française de Daiichi-Sankyo ont recruté en 2016 le fils du président François Hollande, l'avocat Thomas Hollande, lorsque le groupe menaça de supprimer 284 postes dans l'hexagone[6].
-En 2019, AstraZeneca signe un contrat de 6,9 milliards de dollars avec Daiichi-Sankyo pour obtenir les droits de distribution/commercialisation du nouveau traitement anti-cancer Enhertu (trastuzumab deruxtecan) développé par la firme japonaise[7].
+Daiichi-Sankyo Co., Limited (第一三共株式会社, Daiichi-Sankyō Kabushiki-gaisha?) (TSE : 4568) est un groupe pharmaceutique mondial, basé à Tokyo (Japon), avec une présence dans plus de 50 pays. Daiichi-Sankyo est la 3ème plus grande société pharmaceutique au Japon, et figure parmi les 20 laboratoires pharmaceutiques les plus importants au monde.
+Depuis plus de 100 ans, Daiichi-Sankyo Co., Ltd. se consacre au développement et à la commercialisation de traitements thérapeutiques de pointe pour répondre aux besoins médicaux non satisfaits et améliorer la santé et le bien-être des individus. En 2006, Daiichi-Sankyo Co., Ltd. développe davantage ses activités et investissements en oncologie. En 2014, Daiichi-Sankyo revend sa filiale indienne Ranbaxy au groupe Sun Pharmaceutical du milliardaire Dilip Shanghvi pour 4 milliards de dollars, puis rachète Ambit Biosciences, laboratoire spécialisé en solutions oncologiques, pour 410 millions de dollars.
+Les employés de la filiale française de Daiichi-Sankyo ont recruté en 2016 le fils du président François Hollande, l'avocat Thomas Hollande, lorsque le groupe menaça de supprimer 284 postes dans l'hexagone.
+En 2019, AstraZeneca signe un contrat de 6,9 milliards de dollars avec Daiichi-Sankyo pour obtenir les droits de distribution/commercialisation du nouveau traitement anti-cancer Enhertu (trastuzumab deruxtecan) développé par la firme japonaise.
 </t>
         </is>
       </c>
@@ -516,6 +528,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -541,9 +555,11 @@
           <t>Critiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2017, aux États-Unis, Daiichi-Sankyo accepte de payer 300 millions de dollars pour dédommager des milliers de patients ayant contracté des maladies gastro-intestinales après avoir utilisé le traitement Benicar de la firme japonaise[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2017, aux États-Unis, Daiichi-Sankyo accepte de payer 300 millions de dollars pour dédommager des milliers de patients ayant contracté des maladies gastro-intestinales après avoir utilisé le traitement Benicar de la firme japonaise.
 </t>
         </is>
       </c>
